--- a/data/trans_camb/P3A_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,5; 0,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,62; 0,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 3,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 5,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 4,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 6,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 1,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 1,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 3,69</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,94%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,05; 35,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,85; 40,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,46; 135,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,05; 446,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,26; 323,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 592,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,26; 75,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,14; 56,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,52; 149,32</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 0,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; -0,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 2,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 1,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 3,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 1,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; -0,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 2,18</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,04%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,97; 45,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,37; -7,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,35; 87,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,06; 178,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,61; 60,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,12; 162,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,72; 58,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,84; -5,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,99; 83,69</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 5,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 0,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 5,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 4,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; 0,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 8,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 3,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; -0,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 6,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,78%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,6; 173,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,01; 45,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,22; 206,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,16; 162,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,47; 13,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,33; 309,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,57; 118,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,2; 2,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,78; 193,11</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 1,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; -0,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 9,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 0,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 1,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 2,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 0,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; -0,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 4,61</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,68%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,72; 72,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,98; -1,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,98; 376,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,19; 27,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,37; 34,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,91; 63,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,29; 28,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,9; -4,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 131,24</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 6,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,43; 0,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 2,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 7,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 2,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 4,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 5,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 0,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 2,92</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,79%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>354,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>230,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,78%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,2%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-56,63; 309,02</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 79,56</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-69,72; 206,95</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,35; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 451,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,49; 79,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,82; 248,47</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 9,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 1,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 4,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 5,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 7,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,72; 10,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 6,7</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 3,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 6,99</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,07%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>184,17%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>252,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>508,4%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,69%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,91%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 331,38</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,82; 53,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,35; 170,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,64; 1066,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,8; 1671,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>127,43; 2234,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,35; 339,77</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,79; 167,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,31; 351,73</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 1,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 2,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 5,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 4,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 3,07</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 4,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 2,79</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 2,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 4,07</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,64%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,06; 92,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,0; 125,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 232,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 239,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,74; 160,88</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,78; 209,08</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,3; 115,96</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,6; 93,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 166,68</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 0,27</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; -0,01</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; -1,78</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 3,0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 1,73</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 1,77</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 1,28</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 0,15</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; -0,48</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,53%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,92%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,68%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,77%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,06%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,18%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,17%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,46; 8,04</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,25; 1,1</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,61; -48,15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,29; 127,15</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,86; 76,86</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,59; 80,22</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,59; 42,43</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,49; 6,68</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,83; -14,67</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 0,78</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; -0,78</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,24</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 2,34</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 0,85</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 3,12</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 1,32</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; -0,22</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 1,98</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,41%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,97%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,03%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,94%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,13%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,62; 22,06</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,62; -20,36</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,25; 33,77</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,0; 85,3</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,83; 32,47</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,64; 113,75</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 38,92</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,96; -6,87</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,17; 59,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 0,86</t>
+          <t>-5,28; 1,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 0,91</t>
+          <t>-5,11; 0,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,58</t>
+          <t>-3,53; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,42</t>
+          <t>-1,25; 5,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 4,14</t>
+          <t>-2,56; 3,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,11</t>
+          <t>0,09; 5,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,87</t>
+          <t>-2,42; 2,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,38</t>
+          <t>-2,88; 1,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,69</t>
+          <t>-0,57; 3,76</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,05; 35,42</t>
+          <t>-80,7; 53,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-83,85; 40,25</t>
+          <t>-81,42; 38,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 135,71</t>
+          <t>-53,9; 109,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 446,67</t>
+          <t>-43,6; 439,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,26; 323,47</t>
+          <t>-70,79; 302,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 592,67</t>
+          <t>-12,91; 444,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,26; 75,49</t>
+          <t>-51,31; 86,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,14; 56,58</t>
+          <t>-61,98; 59,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 149,32</t>
+          <t>-12,02; 155,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,84</t>
+          <t>-4,21; 0,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -0,38</t>
+          <t>-4,81; -0,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,12</t>
+          <t>-2,99; 2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,94</t>
+          <t>-1,36; 3,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,14</t>
+          <t>-3,29; 1,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,42</t>
+          <t>-1,1; 3,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,57</t>
+          <t>-1,82; 1,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,19</t>
+          <t>-3,14; -0,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,18</t>
+          <t>-1,21; 2,06</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,97; 45,94</t>
+          <t>-78,25; 40,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,37; -7,06</t>
+          <t>-87,7; -10,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,35; 87,36</t>
+          <t>-57,41; 96,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 178,27</t>
+          <t>-31,12; 172,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,61; 60,21</t>
+          <t>-72,22; 65,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 162,62</t>
+          <t>-24,53; 151,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 58,65</t>
+          <t>-41,08; 61,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,84; -5,49</t>
+          <t>-71,12; -4,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 83,69</t>
+          <t>-27,04; 78,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,07</t>
+          <t>-1,72; 5,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 0,97</t>
+          <t>-4,72; 0,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,58</t>
+          <t>-0,65; 5,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,32</t>
+          <t>-2,05; 4,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 0,01</t>
+          <t>-5,18; 0,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,42</t>
+          <t>1,85; 8,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,79</t>
+          <t>-0,86; 3,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; -0,16</t>
+          <t>-4,03; -0,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,04</t>
+          <t>1,48; 6,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 173,62</t>
+          <t>-33,23; 183,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,01; 45,47</t>
+          <t>-77,94; 28,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 206,83</t>
+          <t>-12,97; 220,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,16; 162,98</t>
+          <t>-38,44; 157,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-89,47; 13,18</t>
+          <t>-88,37; 13,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,33; 309,03</t>
+          <t>23,26; 314,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 118,99</t>
+          <t>-18,54; 131,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,2; 2,35</t>
+          <t>-73,41; -6,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,78; 193,11</t>
+          <t>24,47; 198,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,8</t>
+          <t>-3,31; 2,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -0,4</t>
+          <t>-4,92; -0,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 9,15</t>
+          <t>0,91; 9,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 0,93</t>
+          <t>-4,69; 1,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,02</t>
+          <t>-5,66; 0,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,5</t>
+          <t>-3,84; 2,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,83</t>
+          <t>-3,32; 0,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; -0,51</t>
+          <t>-4,4; -0,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,61</t>
+          <t>-0,8; 4,38</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 72,03</t>
+          <t>-68,38; 105,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-89,98; -1,19</t>
+          <t>-92,26; -4,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,98; 376,57</t>
+          <t>8,12; 390,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,19; 27,72</t>
+          <t>-70,19; 33,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-79,37; 34,21</t>
+          <t>-79,96; 30,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 63,19</t>
+          <t>-52,21; 70,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 28,24</t>
+          <t>-58,0; 23,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-78,9; -4,5</t>
+          <t>-76,57; -8,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 131,24</t>
+          <t>-13,08; 126,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 6,08</t>
+          <t>-2,1; 6,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 0,07</t>
+          <t>-5,54; 0,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 2,88</t>
+          <t>-3,67; 2,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 7,32</t>
+          <t>0,67; 7,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,64</t>
+          <t>-1,65; 2,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,38</t>
+          <t>-0,34; 4,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,54</t>
+          <t>0,28; 5,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,67</t>
+          <t>-2,77; 0,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,92</t>
+          <t>-1,03; 2,93</t>
         </is>
       </c>
     </row>
@@ -1655,22 +1655,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,63; 309,02</t>
+          <t>-51,13; 334,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,56</t>
+          <t>-100,0; 114,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,72; 206,95</t>
+          <t>-70,28; 210,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,9; —</t>
+          <t>-33,77; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1680,29 +1680,29 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,35; —</t>
+          <t>-25,29; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,79; 451,15</t>
+          <t>-2,85; 478,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-86,49; 79,71</t>
+          <t>-86,33; 90,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 248,47</t>
+          <t>-34,44; 248,03</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,46; 9,42</t>
+          <t>0,59; 9,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,25</t>
+          <t>-5,04; 1,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,94</t>
+          <t>-1,76; 4,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,53</t>
+          <t>0,25; 6,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,81</t>
+          <t>0,94; 7,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,89</t>
+          <t>4,96; 11,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,7</t>
+          <t>1,2; 6,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,26</t>
+          <t>-1,4; 3,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,99</t>
+          <t>2,27; 7,09</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,91; 331,38</t>
+          <t>-0,52; 326,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-79,82; 53,56</t>
+          <t>-77,84; 64,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 170,72</t>
+          <t>-26,48; 172,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 1066,91</t>
+          <t>-13,78; 1204,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,8; 1671,23</t>
+          <t>-4,13; 1379,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>127,43; 2234,6</t>
+          <t>138,07; 2320,1</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,35; 339,77</t>
+          <t>24,16; 298,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 167,24</t>
+          <t>-36,88; 148,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>53,31; 351,73</t>
+          <t>43,47; 357,51</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,91</t>
+          <t>-2,26; 1,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,66</t>
+          <t>-1,66; 2,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,43</t>
+          <t>0,14; 5,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,53</t>
+          <t>0,2; 4,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,07</t>
+          <t>-1,02; 3,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 4,71</t>
+          <t>-1,47; 4,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,79</t>
+          <t>-0,36; 2,71</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,26</t>
+          <t>-0,65; 2,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,07</t>
+          <t>-0,11; 3,92</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-54,06; 92,88</t>
+          <t>-52,72; 86,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 125,82</t>
+          <t>-41,1; 126,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 232,62</t>
+          <t>-1,85; 228,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 239,51</t>
+          <t>1,37; 256,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 160,88</t>
+          <t>-29,3; 154,51</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 209,08</t>
+          <t>-25,65; 203,39</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 115,96</t>
+          <t>-11,22; 113,8</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 93,99</t>
+          <t>-20,27; 101,29</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,29; 166,68</t>
+          <t>-0,73; 164,61</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,27</t>
+          <t>-3,89; 0,21</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,01</t>
+          <t>-4,0; -0,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -1,78</t>
+          <t>-5,6; -1,69</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,0</t>
+          <t>-0,92; 3,01</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,73</t>
+          <t>-2,09; 1,47</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,77</t>
+          <t>-1,54; 1,78</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,28</t>
+          <t>-1,54; 1,25</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,15</t>
+          <t>-2,41; 0,35</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,2; -0,48</t>
+          <t>-3,12; -0,5</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-59,46; 8,04</t>
+          <t>-63,59; 5,61</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-67,25; 1,1</t>
+          <t>-66,89; 1,68</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-88,61; -48,15</t>
+          <t>-90,45; -46,7</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 127,15</t>
+          <t>-25,6; 125,17</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 76,86</t>
+          <t>-50,56; 70,27</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 80,22</t>
+          <t>-34,42; 84,37</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 42,43</t>
+          <t>-33,59; 37,76</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-52,49; 6,68</t>
+          <t>-50,68; 11,7</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-66,83; -14,67</t>
+          <t>-66,19; -17,79</t>
         </is>
       </c>
     </row>
@@ -2413,42 +2413,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,78</t>
+          <t>-1,26; 0,72</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,78</t>
+          <t>-2,46; -0,68</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,24</t>
+          <t>-0,91; 1,44</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,48; 2,39</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,85</t>
+          <t>-1,03; 0,73</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,12</t>
+          <t>0,99; 3,13</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,32</t>
+          <t>-0,11; 1,33</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,42; -0,22</t>
+          <t>-1,46; -0,2</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 22,06</t>
+          <t>-27,67; 20,27</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-53,62; -20,36</t>
+          <t>-54,24; -19,28</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 33,77</t>
+          <t>-21,01; 39,43</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>13,0; 85,3</t>
+          <t>13,32; 86,73</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 32,47</t>
+          <t>-29,49; 27,08</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>27,64; 113,75</t>
+          <t>28,33; 115,71</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 38,92</t>
+          <t>-2,91; 41,31</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-36,96; -6,87</t>
+          <t>-37,78; -6,05</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>10,17; 59,87</t>
+          <t>10,23; 60,35</t>
         </is>
       </c>
     </row>
